--- a/Lastia/ad/download_data/商品推广广告商品报告.xlsx
+++ b/Lastia/ad/download_data/商品推广广告商品报告.xlsx
@@ -84,13 +84,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.74609375" customWidth="true"/>
-    <col min="2" max="2" width="12.74609375" customWidth="true"/>
+    <col min="1" max="1" width="12.140625" customWidth="true"/>
+    <col min="2" max="2" width="12.140625" customWidth="true"/>
     <col min="3" max="3" width="4.51171875" customWidth="true"/>
     <col min="4" max="4" width="15.91796875" customWidth="true"/>
     <col min="5" max="5" width="18.5390625" customWidth="true"/>
-    <col min="6" max="6" width="23.57421875" customWidth="true"/>
-    <col min="7" max="7" width="13.8515625" customWidth="true"/>
+    <col min="6" max="6" width="19.70703125" customWidth="true"/>
+    <col min="7" max="7" width="13.8828125" customWidth="true"/>
     <col min="8" max="8" width="6.74609375" customWidth="true"/>
     <col min="9" max="9" width="4.9375" customWidth="true"/>
     <col min="10" max="10" width="9.71875" customWidth="true"/>
@@ -101,7 +101,7 @@
     <col min="15" max="15" width="13.41796875" customWidth="true"/>
     <col min="16" max="16" width="11.23046875" customWidth="true"/>
     <col min="17" max="17" width="11.23046875" customWidth="true"/>
-    <col min="18" max="18" width="9.65234375" customWidth="true"/>
+    <col min="18" max="18" width="10.6875" customWidth="true"/>
     <col min="19" max="19" width="17.43359375" customWidth="true"/>
     <col min="20" max="20" width="17.43359375" customWidth="true"/>
     <col min="21" max="21" width="17.65234375" customWidth="true"/>
@@ -222,10 +222,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43275.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
@@ -234,55 +234,49 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ZYL-FLQ</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-224</t>
+          <t>ZYL-FLQ06-TZ-40</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>B076J5DWFM</t>
+          <t>B075R4RWDL</t>
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>979.0</v>
+        <v>3.0</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>0.0040858018386108275</v>
-      </c>
-      <c r="K2" s="7" t="n">
-        <v>0.315</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K2"/>
       <c r="L2" s="7" t="n">
-        <v>1.26</v>
+        <v>0.0</v>
       </c>
       <c r="M2" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N2"/>
-      <c r="O2" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O2"/>
       <c r="P2" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R2" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R2"/>
       <c r="S2" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -298,10 +292,10 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
@@ -320,28 +314,28 @@
       </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>GT-WFY1-E4</t>
+          <t>GT-WFTFGT200-209</t>
         </is>
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>B077NVQNC9</t>
+          <t>B076J6K8RL</t>
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>417.0</v>
+        <v>372.0</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J3" s="6" t="n">
-        <v>0.002398081534772182</v>
+        <v>0.002688172043010753</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="7" t="n">
-        <v>0.16</v>
+        <v>0.35</v>
       </c>
       <c r="M3" s="7" t="n">
         <v>0.0</v>
@@ -374,10 +368,10 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43274.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
@@ -386,55 +380,49 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>ZYL</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>ZYL-FLQ</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>ZYL-FLQ06-HG-40</t>
+          <t>XM-LUHM111-X0</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>B075R4XJZV</t>
+          <t>B07C76QF92</t>
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>707.0</v>
+        <v>40.0</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.007072135785007072</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>0.476</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K4"/>
       <c r="L4" s="7" t="n">
-        <v>2.38</v>
+        <v>0.0</v>
       </c>
       <c r="M4" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N4"/>
-      <c r="O4" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O4"/>
       <c r="P4" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R4" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R4"/>
       <c r="S4" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -450,10 +438,10 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
@@ -462,55 +450,49 @@
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ZYL</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>ZYL-FLQ</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>ZYL-FLQ06-TZ-40</t>
+          <t>XQ-LUHM034-X0</t>
         </is>
       </c>
       <c r="G5" s="1" t="inlineStr">
         <is>
-          <t>B075R4RWDL</t>
+          <t>B07C76QGLV</t>
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3407.0</v>
+        <v>39.0</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.006750807161725858</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>0.4934782608695652</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K5"/>
       <c r="L5" s="7" t="n">
-        <v>11.35</v>
+        <v>0.0</v>
       </c>
       <c r="M5" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N5"/>
-      <c r="O5" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O5"/>
       <c r="P5" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R5" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R5"/>
       <c r="S5" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -526,10 +508,10 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
@@ -538,55 +520,49 @@
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-209</t>
+          <t>XQ-LUHM089-PI</t>
         </is>
       </c>
       <c r="G6" s="1" t="inlineStr">
         <is>
-          <t>B076J6K8RL</t>
+          <t>B07CG51FRQ</t>
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>854.0</v>
+        <v>3.0</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.00936768149882904</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>0.28125</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K6"/>
       <c r="L6" s="7" t="n">
-        <v>2.25</v>
+        <v>0.0</v>
       </c>
       <c r="M6" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N6"/>
-      <c r="O6" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O6"/>
       <c r="P6" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q6" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R6" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R6"/>
       <c r="S6" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -602,10 +578,10 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
@@ -614,38 +590,38 @@
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-213</t>
+          <t>BD-LUHM001-X0</t>
         </is>
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>B0787XKBRG</t>
+          <t>B07CVDNT4J</t>
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>300.0</v>
+        <v>660.0</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.0033333333333333335</v>
+        <v>0.0015151515151515152</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="L7" s="7" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="M7" s="7" t="n">
         <v>0.0</v>
@@ -678,10 +654,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
@@ -690,63 +666,65 @@
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-216</t>
+          <t>YQ-LUHM-F111</t>
         </is>
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>B076J67W43</t>
+          <t>B07CQJ8G3M</t>
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>727.0</v>
+        <v>1839.0</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.002751031636863824</v>
+        <v>5.43773790103317E-4</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>0.225</v>
+        <v>0.59</v>
       </c>
       <c r="L8" s="7" t="n">
-        <v>0.45</v>
+        <v>0.59</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N8"/>
+        <v>7.99</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.07384230287859825</v>
+      </c>
       <c r="O8" s="5" t="n">
-        <v>0.0</v>
+        <v>13.542372881355933</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R8" s="6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T8" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U8" s="7" t="n">
-        <v>0.0</v>
+        <v>7.99</v>
       </c>
       <c r="V8" s="7" t="n">
         <v>0.0</v>
@@ -754,10 +732,10 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43274.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
@@ -766,38 +744,38 @@
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>QLQ</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>QLQ-LUHM121-WO</t>
         </is>
       </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-220</t>
+          <t>QLQ-LUHM121-WO</t>
         </is>
       </c>
       <c r="G9" s="1" t="inlineStr">
         <is>
-          <t>B076J6VFSP</t>
+          <t>B07CXM3QD3</t>
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>1111.0</v>
+        <v>515.0</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>21.0</v>
+        <v>1.0</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.018901890189018902</v>
+        <v>0.001941747572815534</v>
       </c>
       <c r="K9" s="7" t="n">
-        <v>0.22380952380952382</v>
+        <v>0.21</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>4.7</v>
+        <v>0.21</v>
       </c>
       <c r="M9" s="7" t="n">
         <v>0.0</v>
@@ -830,10 +808,10 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
@@ -842,26 +820,26 @@
       </c>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-221</t>
+          <t>SD-LUHM202-B0</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>B076J2DG1R</t>
+          <t>B07CVDZCBW</t>
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>203.0</v>
+        <v>96.0</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0.0</v>
@@ -900,10 +878,10 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
@@ -912,38 +890,38 @@
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>GT-WFTFGT200-223</t>
+          <t>SD-LUHM202-X0</t>
         </is>
       </c>
       <c r="G11" s="1" t="inlineStr">
         <is>
-          <t>B076J61QFW</t>
+          <t>B07CVDJ9S8</t>
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>232.0</v>
+        <v>60.0</v>
       </c>
       <c r="I11" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.004310344827586207</v>
+        <v>0.016666666666666666</v>
       </c>
       <c r="K11" s="7" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="L11" s="7" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="M11" s="7" t="n">
         <v>0.0</v>
@@ -976,10 +954,10 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
@@ -988,55 +966,49 @@
       </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>新品</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>ND-LUHM027</t>
         </is>
       </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>GT-WFY1-E1</t>
+          <t>SDSZH-BS</t>
         </is>
       </c>
       <c r="G12" s="1" t="inlineStr">
         <is>
-          <t>B077NVWPQW</t>
+          <t>B076P8MNVV</t>
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>651.0</v>
+        <v>445.0</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>4.0</v>
+        <v>0.0</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.006144393241167435</v>
-      </c>
-      <c r="K12" s="7" t="n">
-        <v>0.1725</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K12"/>
       <c r="L12" s="7" t="n">
-        <v>0.69</v>
+        <v>0.0</v>
       </c>
       <c r="M12" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N12"/>
-      <c r="O12" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O12"/>
       <c r="P12" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q12" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R12" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R12"/>
       <c r="S12" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1052,10 +1024,10 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
@@ -1064,63 +1036,65 @@
       </c>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>QLQ-WF121-WO</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>QLQ-LUHM121-WO</t>
         </is>
       </c>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>GT-WFY1-E2</t>
+          <t>QLQ-LUHM121-WO</t>
         </is>
       </c>
       <c r="G13" s="1" t="inlineStr">
         <is>
-          <t>B07842F5P9</t>
+          <t>B07CXM3QD3</t>
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1923.0</v>
+        <v>1056.0</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.0010400416016640667</v>
+        <v>0.008522727272727272</v>
       </c>
       <c r="K13" s="7" t="n">
-        <v>0.255</v>
+        <v>0.2488888888888889</v>
       </c>
       <c r="L13" s="7" t="n">
-        <v>0.51</v>
+        <v>2.24</v>
       </c>
       <c r="M13" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N13"/>
+        <v>9.0</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.24888888888888888</v>
+      </c>
       <c r="O13" s="5" t="n">
-        <v>0.0</v>
+        <v>4.017857142857142</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" s="6" t="n">
-        <v>0.0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U13" s="7" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="V13" s="7" t="n">
         <v>0.0</v>
@@ -1128,10 +1102,10 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
@@ -1140,38 +1114,38 @@
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>CLY-GT</t>
+          <t>XK</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>GT200</t>
+          <t>XK-YIWUJS</t>
         </is>
       </c>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>GT-WFY1-E3</t>
+          <t>XK-YIWUJS-Y0-6IN</t>
         </is>
       </c>
       <c r="G14" s="1" t="inlineStr">
         <is>
-          <t>B077NZLTQX</t>
+          <t>B07D4GBBQB</t>
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>2942.0</v>
+        <v>11098.0</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.004758667573079538</v>
+        <v>4.505316273202378E-4</v>
       </c>
       <c r="K14" s="7" t="n">
-        <v>0.19357142857142856</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="L14" s="7" t="n">
-        <v>2.71</v>
+        <v>3.1999999999999997</v>
       </c>
       <c r="M14" s="7" t="n">
         <v>0.0</v>
@@ -1204,10 +1178,10 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43273.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
@@ -1216,76 +1190,76 @@
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>BAll</t>
+          <t>XK</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02</t>
+          <t>XK-YIWUJS2</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02-BO-6</t>
+          <t>XK-YIWUJS2-BR-7IN</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>B075N3N55V</t>
+          <t>B07D4GDZTQ</t>
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>3485.0</v>
+        <v>58187.0</v>
       </c>
       <c r="I15" s="4" t="n">
-        <v>20.0</v>
+        <v>53.0</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.005738880918220948</v>
+        <v>9.108563768539364E-4</v>
       </c>
       <c r="K15" s="7" t="n">
-        <v>0.28650000000000003</v>
+        <v>0.7769811320754716</v>
       </c>
       <c r="L15" s="7" t="n">
-        <v>5.73</v>
+        <v>41.17999999999999</v>
       </c>
       <c r="M15" s="7" t="n">
-        <v>15.99</v>
+        <v>26.98</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3583489681050656</v>
+        <v>1.5263157894736838</v>
       </c>
       <c r="O15" s="5" t="n">
-        <v>2.7905759162303663</v>
+        <v>0.6551724137931035</v>
       </c>
       <c r="P15" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R15" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="S15" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="T15" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U15" s="7" t="n">
-        <v>15.99</v>
+        <v>13.99</v>
       </c>
       <c r="V15" s="7" t="n">
-        <v>0.0</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
@@ -1294,76 +1268,74 @@
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>BAll</t>
+          <t>清仓</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02</t>
+          <t>qc</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02-SI-4</t>
+          <t>HYD-WF7995-BO-XL</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>B075N4YGPD</t>
+          <t>B077STZV9Y</t>
         </is>
       </c>
       <c r="H16" s="4" t="n">
-        <v>1414.0</v>
+        <v>73.0</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>14.0</v>
+        <v>1.0</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.009900990099009901</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="K16" s="7" t="n">
-        <v>0.305</v>
+        <v>0.24</v>
       </c>
       <c r="L16" s="7" t="n">
-        <v>4.27</v>
+        <v>0.24</v>
       </c>
       <c r="M16" s="7" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="N16" s="6" t="n">
-        <v>0.19426751592356686</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N16"/>
       <c r="O16" s="5" t="n">
-        <v>5.147540983606558</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="6" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.0</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T16" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U16" s="7" t="n">
-        <v>8.99</v>
+        <v>0.0</v>
       </c>
       <c r="V16" s="7" t="n">
-        <v>12.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
@@ -1372,55 +1344,49 @@
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>BAll</t>
+          <t>清仓</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02</t>
+          <t>qc</t>
         </is>
       </c>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>BA-FLQ02-SI-6</t>
+          <t>ST-FLQ110-KO-XL</t>
         </is>
       </c>
       <c r="G17" s="1" t="inlineStr">
         <is>
-          <t>B075N1KNHS</t>
+          <t>B077N9TG25</t>
         </is>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1325.0</v>
+        <v>146.0</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.009811320754716982</v>
-      </c>
-      <c r="K17" s="7" t="n">
-        <v>0.31769230769230766</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K17"/>
       <c r="L17" s="7" t="n">
-        <v>4.13</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N17"/>
-      <c r="O17" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O17"/>
       <c r="P17" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R17" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R17"/>
       <c r="S17" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1436,10 +1402,10 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
@@ -1448,38 +1414,38 @@
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>QLQ-WF121-WO</t>
+          <t>清仓</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>QQ-LUHM-801-B0</t>
+          <t>qc</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>QQ-LUHM-801-B0</t>
+          <t>SND-FLQ18-SJ-74</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>B07CPW1TRS</t>
+          <t>B0761KKJCB</t>
         </is>
       </c>
       <c r="H18" s="4" t="n">
-        <v>4724.0</v>
+        <v>222.0</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.001905165114309907</v>
+        <v>0.009009009009009009</v>
       </c>
       <c r="K18" s="7" t="n">
-        <v>0.4766666666666668</v>
+        <v>0.22</v>
       </c>
       <c r="L18" s="7" t="n">
-        <v>4.290000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="M18" s="7" t="n">
         <v>0.0</v>
@@ -1512,10 +1478,10 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
@@ -1524,38 +1490,38 @@
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SQ</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SQ-LUHM200</t>
         </is>
       </c>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>XM-LUHM111-X0</t>
+          <t>SQ-LUHM204</t>
         </is>
       </c>
       <c r="G19" s="1" t="inlineStr">
         <is>
-          <t>B07C76QF92</t>
+          <t>B07DKXSV9P</t>
         </is>
       </c>
       <c r="H19" s="4" t="n">
-        <v>616.0</v>
+        <v>44786.0</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>3.0</v>
+        <v>38.0</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.00487012987012987</v>
+        <v>8.484794355378913E-4</v>
       </c>
       <c r="K19" s="7" t="n">
-        <v>0.37000000000000005</v>
+        <v>0.4278947368421052</v>
       </c>
       <c r="L19" s="7" t="n">
-        <v>1.11</v>
+        <v>16.259999999999998</v>
       </c>
       <c r="M19" s="7" t="n">
         <v>0.0</v>
@@ -1588,10 +1554,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43275.0</v>
+        <v>43285.0</v>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
@@ -1600,55 +1566,47 @@
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SQ</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SQ-LUHM200</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>XQ-LUHM034-X0</t>
+          <t>SQ-LUHM404</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>B07C76QGLV</t>
+          <t>B07DKT41YL</t>
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>3712.0</v>
+        <v>0.0</v>
       </c>
       <c r="I20" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J20" s="6" t="n">
-        <v>2.6939655172413793E-4</v>
-      </c>
-      <c r="K20" s="7" t="n">
-        <v>0.1</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20"/>
       <c r="L20" s="7" t="n">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="M20" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N20"/>
-      <c r="O20" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O20"/>
       <c r="P20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R20" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R20"/>
       <c r="S20" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1664,10 +1622,10 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
@@ -1676,49 +1634,55 @@
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>Bamboo</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>YQ-LUHM</t>
         </is>
       </c>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>XQ-LUHM089-PI</t>
+          <t>YQ-LUHM-F114</t>
         </is>
       </c>
       <c r="G21" s="1" t="inlineStr">
         <is>
-          <t>B07CG51FRQ</t>
+          <t>B07DLTWN39</t>
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>731.0</v>
+        <v>1635.0</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K21"/>
+        <v>6.116207951070336E-4</v>
+      </c>
+      <c r="K21" s="7" t="n">
+        <v>0.05</v>
+      </c>
       <c r="L21" s="7" t="n">
-        <v>0.0</v>
+        <v>0.05</v>
       </c>
       <c r="M21" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N21"/>
-      <c r="O21"/>
+      <c r="O21" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R21"/>
+      <c r="R21" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S21" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1734,10 +1698,10 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
@@ -1746,38 +1710,38 @@
       </c>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>BD-LUHM001-X0</t>
+          <t>BDB-LUHM001-B0</t>
         </is>
       </c>
       <c r="G22" s="1" t="inlineStr">
         <is>
-          <t>B07CVDNT4J</t>
+          <t>B07DQS5YP2</t>
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>3901.0</v>
+        <v>132.0</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>15.0</v>
+        <v>1.0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.003845167905665214</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="K22" s="7" t="n">
-        <v>0.312</v>
+        <v>0.37</v>
       </c>
       <c r="L22" s="7" t="n">
-        <v>4.68</v>
+        <v>0.37</v>
       </c>
       <c r="M22" s="7" t="n">
         <v>0.0</v>
@@ -1810,10 +1774,10 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
@@ -1822,65 +1786,63 @@
       </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM-F111</t>
+          <t>BDB-LUHM001-G0</t>
         </is>
       </c>
       <c r="G23" s="1" t="inlineStr">
         <is>
-          <t>B07CQJ8G3M</t>
+          <t>B07DQLVNSH</t>
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>2809.0</v>
+        <v>919.0</v>
       </c>
       <c r="I23" s="4" t="n">
-        <v>10.0</v>
+        <v>1.0</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.00355998576005696</v>
+        <v>0.001088139281828074</v>
       </c>
       <c r="K23" s="7" t="n">
-        <v>0.479</v>
+        <v>0.43</v>
       </c>
       <c r="L23" s="7" t="n">
-        <v>4.79</v>
+        <v>0.43</v>
       </c>
       <c r="M23" s="7" t="n">
-        <v>15.98</v>
-      </c>
-      <c r="N23" s="6" t="n">
-        <v>0.2997496871088861</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N23"/>
       <c r="O23" s="5" t="n">
-        <v>3.336116910229645</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="R23" s="6" t="n">
-        <v>0.2</v>
+        <v>0.0</v>
       </c>
       <c r="S23" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U23" s="7" t="n">
-        <v>15.98</v>
+        <v>0.0</v>
       </c>
       <c r="V23" s="7" t="n">
         <v>0.0</v>
@@ -1888,10 +1850,10 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
@@ -1900,55 +1862,49 @@
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>QLQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>QLQ-LUHM121-WO</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>QLQ-LUHM121-WO</t>
+          <t>SNH-LUHM001-E0</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>B07CXM3QD3</t>
+          <t>B07DQM6N3W</t>
         </is>
       </c>
       <c r="H24" s="4" t="n">
-        <v>27658.0</v>
+        <v>45.0</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>8.315857979608072E-4</v>
-      </c>
-      <c r="K24" s="7" t="n">
-        <v>0.3969565217391304</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K24"/>
       <c r="L24" s="7" t="n">
-        <v>9.129999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="M24" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N24"/>
-      <c r="O24" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O24"/>
       <c r="P24" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R24" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R24"/>
       <c r="S24" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -1964,10 +1920,10 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
@@ -1976,55 +1932,49 @@
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>SD-LUHM202-B0</t>
+          <t>SNH-LUHM001-G0</t>
         </is>
       </c>
       <c r="G25" s="1" t="inlineStr">
         <is>
-          <t>B07CVDZCBW</t>
+          <t>B07DQMT2TL</t>
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>483.0</v>
+        <v>57.0</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.002070393374741201</v>
-      </c>
-      <c r="K25" s="7" t="n">
-        <v>0.41</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K25"/>
       <c r="L25" s="7" t="n">
-        <v>0.41</v>
+        <v>0.0</v>
       </c>
       <c r="M25" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N25"/>
-      <c r="O25" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O25"/>
       <c r="P25" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R25" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R25"/>
       <c r="S25" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2040,10 +1990,10 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
@@ -2052,55 +2002,49 @@
       </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>SD-LUHM202-X0</t>
+          <t>SNH-LUHM001-K0</t>
         </is>
       </c>
       <c r="G26" s="1" t="inlineStr">
         <is>
-          <t>B07CVDJ9S8</t>
+          <t>B07DQLZ5KK</t>
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>1039.0</v>
+        <v>42.0</v>
       </c>
       <c r="I26" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0028873917228103944</v>
-      </c>
-      <c r="K26" s="7" t="n">
-        <v>0.42333333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K26"/>
       <c r="L26" s="7" t="n">
-        <v>1.27</v>
+        <v>0.0</v>
       </c>
       <c r="M26" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N26"/>
-      <c r="O26" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O26"/>
       <c r="P26" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q26" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R26"/>
       <c r="S26" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2116,10 +2060,10 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
@@ -2128,38 +2072,38 @@
       </c>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>新品</t>
+          <t>Whisky stone</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>ND-LUHM027</t>
+          <t>ST-LAHM-LG</t>
         </is>
       </c>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>SDSZH-BS</t>
+          <t>ST-LAHM-LG-001</t>
         </is>
       </c>
       <c r="G27" s="1" t="inlineStr">
         <is>
-          <t>B076P8MNVV</t>
+          <t>B07DVJW5HD</t>
         </is>
       </c>
       <c r="H27" s="4" t="n">
-        <v>1696.0</v>
+        <v>4618.0</v>
       </c>
       <c r="I27" s="4" t="n">
-        <v>4.0</v>
+        <v>14.0</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.0023584905660377358</v>
+        <v>0.0030316154179298397</v>
       </c>
       <c r="K27" s="7" t="n">
-        <v>0.36</v>
+        <v>0.9621428571428572</v>
       </c>
       <c r="L27" s="7" t="n">
-        <v>1.44</v>
+        <v>13.47</v>
       </c>
       <c r="M27" s="7" t="n">
         <v>0.0</v>
@@ -2192,10 +2136,10 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
@@ -2204,65 +2148,65 @@
       </c>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>QLQ-WF121-WO</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>QLQ-LUHM121-WO</t>
+          <t>SB-LUHM100</t>
         </is>
       </c>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>QLQ-LUHM121-WO</t>
+          <t>SB-LUHM100-B0</t>
         </is>
       </c>
       <c r="G28" s="1" t="inlineStr">
         <is>
-          <t>B07CXM3QD3</t>
+          <t>B07DVH33X4</t>
         </is>
       </c>
       <c r="H28" s="4" t="n">
-        <v>41875.0</v>
+        <v>806.0</v>
       </c>
       <c r="I28" s="4" t="n">
-        <v>57.0</v>
+        <v>8.0</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>0.0013611940298507463</v>
+        <v>0.009925558312655087</v>
       </c>
       <c r="K28" s="7" t="n">
-        <v>0.3931578947368421</v>
+        <v>0.39</v>
       </c>
       <c r="L28" s="7" t="n">
-        <v>22.41</v>
+        <v>3.12</v>
       </c>
       <c r="M28" s="7" t="n">
-        <v>49.0</v>
+        <v>11.99</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.4573469387755102</v>
+        <v>0.2602168473728107</v>
       </c>
       <c r="O28" s="5" t="n">
-        <v>2.186523873270861</v>
+        <v>3.842948717948718</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="R28" s="6" t="n">
-        <v>0.12280701754385964</v>
+        <v>0.125</v>
       </c>
       <c r="S28" s="4" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="T28" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U28" s="7" t="n">
-        <v>49.0</v>
+        <v>11.99</v>
       </c>
       <c r="V28" s="7" t="n">
         <v>0.0</v>
@@ -2270,10 +2214,10 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
@@ -2282,55 +2226,49 @@
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>清仓</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>qc</t>
+          <t>SB-LUHM100</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>HYD-WF7995-BO-XL</t>
+          <t>SB-LUHM100-G0</t>
         </is>
       </c>
       <c r="G29" s="1" t="inlineStr">
         <is>
-          <t>B077STZV9Y</t>
+          <t>B07DVLM761</t>
         </is>
       </c>
       <c r="H29" s="4" t="n">
-        <v>704.0</v>
+        <v>48.0</v>
       </c>
       <c r="I29" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.008522727272727272</v>
-      </c>
-      <c r="K29" s="7" t="n">
-        <v>0.345</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K29"/>
       <c r="L29" s="7" t="n">
-        <v>2.07</v>
+        <v>0.0</v>
       </c>
       <c r="M29" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N29"/>
-      <c r="O29" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O29"/>
       <c r="P29" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R29" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R29"/>
       <c r="S29" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2346,10 +2284,10 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
@@ -2358,55 +2296,49 @@
       </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>清仓</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>qc</t>
+          <t>SB-LUHM100</t>
         </is>
       </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>ST-FLQ110-KO-XL</t>
+          <t>SB-LUHM100-K0</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>B077N9TG25</t>
+          <t>B07DVBN2KT</t>
         </is>
       </c>
       <c r="H30" s="4" t="n">
-        <v>799.0</v>
+        <v>28.0</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.0012515644555694619</v>
-      </c>
-      <c r="K30" s="7" t="n">
-        <v>0.34</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K30"/>
       <c r="L30" s="7" t="n">
-        <v>0.34</v>
+        <v>0.0</v>
       </c>
       <c r="M30" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N30"/>
-      <c r="O30" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O30"/>
       <c r="P30" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R30" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R30"/>
       <c r="S30" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2422,10 +2354,10 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43272.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
@@ -2434,74 +2366,76 @@
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>清仓</t>
+          <t>STB</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>qc</t>
+          <t>SB-LUHM100</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>ZQ-WF002-BO-M</t>
+          <t>SB-LUHM100-R0</t>
         </is>
       </c>
       <c r="G31" s="1" t="inlineStr">
         <is>
-          <t>B078HGJSND</t>
+          <t>B07DVK4HKX</t>
         </is>
       </c>
       <c r="H31" s="4" t="n">
-        <v>6871.0</v>
+        <v>1927.0</v>
       </c>
       <c r="I31" s="4" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>0.0036384805705137534</v>
+        <v>0.011935651271406332</v>
       </c>
       <c r="K31" s="7" t="n">
-        <v>0.3112</v>
+        <v>0.27</v>
       </c>
       <c r="L31" s="7" t="n">
-        <v>7.779999999999999</v>
+        <v>6.21</v>
       </c>
       <c r="M31" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N31"/>
+        <v>11.99</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>0.517931609674729</v>
+      </c>
       <c r="O31" s="5" t="n">
-        <v>0.0</v>
+        <v>1.9307568438003222</v>
       </c>
       <c r="P31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R31" s="6" t="n">
-        <v>0.0</v>
+        <v>0.043478260869565216</v>
       </c>
       <c r="S31" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T31" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U31" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V31" s="7" t="n">
-        <v>0.0</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
@@ -2510,55 +2444,49 @@
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>清仓</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>qc</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>SND-FLQ18-SJ-74</t>
+          <t>BDB-LUHM001-G0</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>B0761KKJCB</t>
+          <t>B07DQLVNSH</t>
         </is>
       </c>
       <c r="H32" s="4" t="n">
-        <v>919.0</v>
+        <v>142.0</v>
       </c>
       <c r="I32" s="4" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.006528835690968444</v>
-      </c>
-      <c r="K32" s="7" t="n">
-        <v>0.4083333333333334</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K32"/>
       <c r="L32" s="7" t="n">
-        <v>2.45</v>
+        <v>0.0</v>
       </c>
       <c r="M32" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N32"/>
-      <c r="O32" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O32"/>
       <c r="P32" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R32" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R32"/>
       <c r="S32" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2574,10 +2502,10 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
@@ -2586,38 +2514,38 @@
       </c>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>清仓</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>qc</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>SL-LULW818-BO-L</t>
+          <t>BDB-LUHM001-Y0</t>
         </is>
       </c>
       <c r="G33" s="1" t="inlineStr">
         <is>
-          <t>B078RNM8V8</t>
+          <t>B07DQPGWNM</t>
         </is>
       </c>
       <c r="H33" s="4" t="n">
-        <v>10926.0</v>
+        <v>189.0</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>42.0</v>
+        <v>1.0</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.003844041735310269</v>
+        <v>0.005291005291005291</v>
       </c>
       <c r="K33" s="7" t="n">
-        <v>0.3202380952380952</v>
+        <v>0.17</v>
       </c>
       <c r="L33" s="7" t="n">
-        <v>13.45</v>
+        <v>0.17</v>
       </c>
       <c r="M33" s="7" t="n">
         <v>0.0</v>
@@ -2650,10 +2578,10 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
@@ -2662,26 +2590,26 @@
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-CYH30-100</t>
+          <t>SNH-LUHM001-E0</t>
         </is>
       </c>
       <c r="G34" s="1" t="inlineStr">
         <is>
-          <t>B077TRSMNJ</t>
+          <t>B07DQM6N3W</t>
         </is>
       </c>
       <c r="H34" s="4" t="n">
-        <v>191.0</v>
+        <v>63.0</v>
       </c>
       <c r="I34" s="4" t="n">
         <v>0.0</v>
@@ -2720,10 +2648,10 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
@@ -2732,26 +2660,26 @@
       </c>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-CYV30-100</t>
+          <t>SNH-LUHM001-G0</t>
         </is>
       </c>
       <c r="G35" s="1" t="inlineStr">
         <is>
-          <t>B077TLK2KD</t>
+          <t>B07DQMT2TL</t>
         </is>
       </c>
       <c r="H35" s="4" t="n">
-        <v>45.0</v>
+        <v>116.0</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>0.0</v>
@@ -2790,10 +2718,10 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
@@ -2802,26 +2730,26 @@
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-CYXL-50*30</t>
+          <t>SNH-LUHM001-K0</t>
         </is>
       </c>
       <c r="G36" s="1" t="inlineStr">
         <is>
-          <t>B077TT1KPV</t>
+          <t>B07DQLZ5KK</t>
         </is>
       </c>
       <c r="H36" s="4" t="n">
-        <v>113.0</v>
+        <v>124.0</v>
       </c>
       <c r="I36" s="4" t="n">
         <v>0.0</v>
@@ -2860,10 +2788,10 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
@@ -2872,55 +2800,49 @@
       </c>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJ-100</t>
+          <t>SNH-LUHM001-W0</t>
         </is>
       </c>
       <c r="G37" s="1" t="inlineStr">
         <is>
-          <t>B076WN8XVK</t>
+          <t>B07DQLKY6N</t>
         </is>
       </c>
       <c r="H37" s="4" t="n">
-        <v>8641.0</v>
+        <v>128.0</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="6" t="n">
-        <v>0.004860548547621803</v>
-      </c>
-      <c r="K37" s="7" t="n">
-        <v>0.2485714285714286</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K37"/>
       <c r="L37" s="7" t="n">
-        <v>10.440000000000001</v>
+        <v>0.0</v>
       </c>
       <c r="M37" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N37"/>
-      <c r="O37" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O37"/>
       <c r="P37" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R37"/>
       <c r="S37" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -2936,10 +2858,10 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
@@ -2948,63 +2870,65 @@
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJH30-100</t>
+          <t>SNH-LUHM001-Y0</t>
         </is>
       </c>
       <c r="G38" s="1" t="inlineStr">
         <is>
-          <t>B076VL2YKB</t>
+          <t>B07DQL4VVL</t>
         </is>
       </c>
       <c r="H38" s="4" t="n">
-        <v>376.0</v>
+        <v>765.0</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.015957446808510637</v>
+        <v>0.010457516339869279</v>
       </c>
       <c r="K38" s="7" t="n">
-        <v>0.36999999999999994</v>
+        <v>0.57875</v>
       </c>
       <c r="L38" s="7" t="n">
-        <v>2.2199999999999998</v>
+        <v>4.63</v>
       </c>
       <c r="M38" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N38"/>
+        <v>7.99</v>
+      </c>
+      <c r="N38" s="6" t="n">
+        <v>0.5794743429286608</v>
+      </c>
       <c r="O38" s="5" t="n">
-        <v>0.0</v>
+        <v>1.7257019438444925</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R38" s="6" t="n">
-        <v>0.0</v>
+        <v>0.125</v>
       </c>
       <c r="S38" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T38" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U38" s="7" t="n">
-        <v>0.0</v>
+        <v>7.99</v>
       </c>
       <c r="V38" s="7" t="n">
         <v>0.0</v>
@@ -3012,10 +2936,10 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
@@ -3024,55 +2948,49 @@
       </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJV30-100</t>
+          <t>SNT-LUHM001-BS</t>
         </is>
       </c>
       <c r="G39" s="1" t="inlineStr">
         <is>
-          <t>B076VMW2WD</t>
+          <t>B07DQN9ZJT</t>
         </is>
       </c>
       <c r="H39" s="4" t="n">
-        <v>868.0</v>
+        <v>159.0</v>
       </c>
       <c r="I39" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.009216589861751152</v>
-      </c>
-      <c r="K39" s="7" t="n">
-        <v>0.27499999999999997</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K39"/>
       <c r="L39" s="7" t="n">
-        <v>2.1999999999999997</v>
+        <v>0.0</v>
       </c>
       <c r="M39" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N39"/>
-      <c r="O39" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O39"/>
       <c r="P39" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R39" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R39"/>
       <c r="S39" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3088,10 +3006,10 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
@@ -3100,55 +3018,49 @@
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJV40-100</t>
+          <t>SNT-LUHM001-DX</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr">
         <is>
-          <t>B076VDS945</t>
+          <t>B07DQPRJPR</t>
         </is>
       </c>
       <c r="H40" s="4" t="n">
-        <v>277.0</v>
+        <v>9.0</v>
       </c>
       <c r="I40" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="J40" s="6" t="n">
-        <v>0.01083032490974729</v>
-      </c>
-      <c r="K40" s="7" t="n">
-        <v>0.24</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K40"/>
       <c r="L40" s="7" t="n">
-        <v>0.72</v>
+        <v>0.0</v>
       </c>
       <c r="M40" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N40"/>
-      <c r="O40" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O40"/>
       <c r="P40" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R40" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R40"/>
       <c r="S40" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3164,10 +3076,10 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
@@ -3176,55 +3088,49 @@
       </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJXL-50*30</t>
+          <t>SNT-LUHM001-GQ</t>
         </is>
       </c>
       <c r="G41" s="1" t="inlineStr">
         <is>
-          <t>B077TTZWSL</t>
+          <t>B07DQL4VVH</t>
         </is>
       </c>
       <c r="H41" s="4" t="n">
-        <v>371.0</v>
+        <v>161.0</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J41" s="6" t="n">
-        <v>0.018867924528301886</v>
-      </c>
-      <c r="K41" s="7" t="n">
-        <v>0.3071428571428571</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K41"/>
       <c r="L41" s="7" t="n">
-        <v>2.15</v>
+        <v>0.0</v>
       </c>
       <c r="M41" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N41"/>
-      <c r="O41" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O41"/>
       <c r="P41" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R41" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R41"/>
       <c r="S41" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3240,10 +3146,10 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
@@ -3252,38 +3158,38 @@
       </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>ZYL</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>SN-LUHM</t>
         </is>
       </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-SJYX-140</t>
+          <t>SNT-LUHM001-HW</t>
         </is>
       </c>
       <c r="G42" s="1" t="inlineStr">
         <is>
-          <t>B076VCM38W</t>
+          <t>B07DQP8MPM</t>
         </is>
       </c>
       <c r="H42" s="4" t="n">
-        <v>235.0</v>
+        <v>150.0</v>
       </c>
       <c r="I42" s="4" t="n">
         <v>1.0</v>
       </c>
       <c r="J42" s="6" t="n">
-        <v>0.00425531914893617</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="K42" s="7" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="L42" s="7" t="n">
-        <v>0.23</v>
+        <v>0.34</v>
       </c>
       <c r="M42" s="7" t="n">
         <v>0.0</v>
@@ -3316,10 +3222,10 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
@@ -3328,38 +3234,38 @@
       </c>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>水晶</t>
+          <t>WCB</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19</t>
+          <t>WB-LUHM002</t>
         </is>
       </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>SJZP-FLQ19-YXCY-140</t>
+          <t>WB-LUHM002-B0</t>
         </is>
       </c>
       <c r="G43" s="1" t="inlineStr">
         <is>
-          <t>B077PTSNWW</t>
+          <t>B07DVLSHLK</t>
         </is>
       </c>
       <c r="H43" s="4" t="n">
-        <v>270.0</v>
+        <v>1176.0</v>
       </c>
       <c r="I43" s="4" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J43" s="6" t="n">
-        <v>0.007407407407407408</v>
+        <v>8.503401360544217E-4</v>
       </c>
       <c r="K43" s="7" t="n">
-        <v>0.195</v>
+        <v>0.13</v>
       </c>
       <c r="L43" s="7" t="n">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="M43" s="7" t="n">
         <v>0.0</v>
@@ -3392,10 +3298,10 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43272.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
@@ -3404,55 +3310,49 @@
       </c>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>衣服</t>
+          <t>WCB</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr">
         <is>
-          <t>WY-WF1217</t>
+          <t>WB-LUHM002</t>
         </is>
       </c>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>WY-WF1225-BO-S</t>
+          <t>WB-LUHM002-E0</t>
         </is>
       </c>
       <c r="G44" s="1" t="inlineStr">
         <is>
-          <t>B078MNG1TG</t>
+          <t>B07DVHDT1N</t>
         </is>
       </c>
       <c r="H44" s="4" t="n">
-        <v>8944.0</v>
+        <v>130.0</v>
       </c>
       <c r="I44" s="4" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.0022361359570661895</v>
-      </c>
-      <c r="K44" s="7" t="n">
-        <v>0.5479999999999999</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K44"/>
       <c r="L44" s="7" t="n">
-        <v>10.959999999999999</v>
+        <v>0.0</v>
       </c>
       <c r="M44" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N44"/>
-      <c r="O44" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O44"/>
       <c r="P44" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q44" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R44" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R44"/>
       <c r="S44" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3468,10 +3368,10 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>43270.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43272.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
@@ -3480,26 +3380,26 @@
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>WCB</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>WB-LUHM002</t>
         </is>
       </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>WY-WF1217-KO-XL</t>
+          <t>WB-LUHM002-G0</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>B078MNWK8Y</t>
+          <t>B07DVGSHDP</t>
         </is>
       </c>
       <c r="H45" s="4" t="n">
-        <v>46.0</v>
+        <v>63.0</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>0.0</v>
@@ -3538,10 +3438,10 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43271.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
@@ -3550,49 +3450,55 @@
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>WCB</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>WB-LUHM002</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>WY-WF1217-RO-XL</t>
+          <t>WB-LUHM002-R0</t>
         </is>
       </c>
       <c r="G46" s="1" t="inlineStr">
         <is>
-          <t>B078MLS36P</t>
+          <t>B07DVK765T</t>
         </is>
       </c>
       <c r="H46" s="4" t="n">
-        <v>10.0</v>
+        <v>112.0</v>
       </c>
       <c r="I46" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="J46" s="6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K46"/>
+        <v>0.008928571428571428</v>
+      </c>
+      <c r="K46" s="7" t="n">
+        <v>0.15</v>
+      </c>
       <c r="L46" s="7" t="n">
-        <v>0.0</v>
+        <v>0.15</v>
       </c>
       <c r="M46" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N46"/>
-      <c r="O46"/>
+      <c r="O46" s="5" t="n">
+        <v>0.0</v>
+      </c>
       <c r="P46" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q46" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R46"/>
+      <c r="R46" s="6" t="n">
+        <v>0.0</v>
+      </c>
       <c r="S46" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3608,10 +3514,10 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
@@ -3620,55 +3526,49 @@
       </c>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr">
         <is>
-          <t>毛衣</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>WY-WF1225-BO-XL</t>
+          <t>SNH-LUHM001-W0</t>
         </is>
       </c>
       <c r="G47" s="1" t="inlineStr">
         <is>
-          <t>B078MPBBKH</t>
+          <t>B07DQLKY6N</t>
         </is>
       </c>
       <c r="H47" s="4" t="n">
-        <v>87.0</v>
+        <v>10.0</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="J47" s="6" t="n">
-        <v>0.011494252873563218</v>
-      </c>
-      <c r="K47" s="7" t="n">
-        <v>0.37</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K47"/>
       <c r="L47" s="7" t="n">
-        <v>0.37</v>
+        <v>0.0</v>
       </c>
       <c r="M47" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N47"/>
-      <c r="O47" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O47"/>
       <c r="P47" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R47" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R47"/>
       <c r="S47" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3684,10 +3584,10 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
@@ -3696,76 +3596,74 @@
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>SQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM200</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM204</t>
+          <t>SNH-LUHM001-Y0</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>B07DKXSV9P</t>
+          <t>B07DQL4VVL</t>
         </is>
       </c>
       <c r="H48" s="4" t="n">
-        <v>13927.0</v>
+        <v>386.0</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="J48" s="6" t="n">
-        <v>0.0020822862066489554</v>
+        <v>0.007772020725388601</v>
       </c>
       <c r="K48" s="7" t="n">
-        <v>0.8275862068965517</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L48" s="7" t="n">
-        <v>24.0</v>
+        <v>1.6</v>
       </c>
       <c r="M48" s="7" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="N48" s="6" t="n">
-        <v>1.2006003001500751</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N48"/>
       <c r="O48" s="5" t="n">
-        <v>0.8329166666666666</v>
+        <v>0.0</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="R48" s="6" t="n">
-        <v>0.034482758620689655</v>
+        <v>0.0</v>
       </c>
       <c r="S48" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="T48" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U48" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="V48" s="7" t="n">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
@@ -3774,55 +3672,49 @@
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>SQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM200</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM304</t>
+          <t>SNT-LUHM001-BS</t>
         </is>
       </c>
       <c r="G49" s="1" t="inlineStr">
         <is>
-          <t>B07DKWSJ1Z</t>
+          <t>B07DQN9ZJT</t>
         </is>
       </c>
       <c r="H49" s="4" t="n">
-        <v>3346.0</v>
+        <v>124.0</v>
       </c>
       <c r="I49" s="4" t="n">
-        <v>8.0</v>
+        <v>0.0</v>
       </c>
       <c r="J49" s="6" t="n">
-        <v>0.002390914524805738</v>
-      </c>
-      <c r="K49" s="7" t="n">
-        <v>0.8200000000000001</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K49"/>
       <c r="L49" s="7" t="n">
-        <v>6.5600000000000005</v>
+        <v>0.0</v>
       </c>
       <c r="M49" s="7" t="n">
         <v>0.0</v>
       </c>
       <c r="N49"/>
-      <c r="O49" s="5" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="O49"/>
       <c r="P49" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0.0</v>
       </c>
-      <c r="R49" s="6" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="R49"/>
       <c r="S49" s="4" t="n">
         <v>0.0</v>
       </c>
@@ -3838,10 +3730,10 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
@@ -3850,65 +3742,57 @@
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>SQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM200</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM354</t>
+          <t>SNT-LUHM001-DX</t>
         </is>
       </c>
       <c r="G50" s="1" t="inlineStr">
         <is>
-          <t>B07DKV16HS</t>
+          <t>B07DQPRJPR</t>
         </is>
       </c>
       <c r="H50" s="4" t="n">
-        <v>4095.0</v>
+        <v>52.0</v>
       </c>
       <c r="I50" s="4" t="n">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.0031746031746031746</v>
-      </c>
-      <c r="K50" s="7" t="n">
-        <v>0.8461538461538461</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K50"/>
       <c r="L50" s="7" t="n">
-        <v>11.0</v>
+        <v>0.0</v>
       </c>
       <c r="M50" s="7" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="N50" s="6" t="n">
-        <v>0.5502751375687844</v>
-      </c>
-      <c r="O50" s="5" t="n">
-        <v>1.8172727272727272</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N50"/>
+      <c r="O50"/>
       <c r="P50" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q50" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R50" s="6" t="n">
-        <v>0.07692307692307693</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R50"/>
       <c r="S50" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T50" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U50" s="7" t="n">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
       <c r="V50" s="7" t="n">
         <v>0.0</v>
@@ -3916,10 +3800,10 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
@@ -3928,65 +3812,57 @@
       </c>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>SQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM200</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM404</t>
+          <t>SNT-LUHM001-GQ</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>B07DKT41YL</t>
+          <t>B07DQL4VVH</t>
         </is>
       </c>
       <c r="H51" s="4" t="n">
-        <v>11534.0</v>
+        <v>416.0</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.0020808045777700713</v>
-      </c>
-      <c r="K51" s="7" t="n">
-        <v>0.8970833333333333</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K51"/>
       <c r="L51" s="7" t="n">
-        <v>21.53</v>
+        <v>0.0</v>
       </c>
       <c r="M51" s="7" t="n">
-        <v>21.99</v>
-      </c>
-      <c r="N51" s="6" t="n">
-        <v>0.9790814006366532</v>
-      </c>
-      <c r="O51" s="5" t="n">
-        <v>1.0213655364607523</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
       <c r="P51" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R51" s="6" t="n">
-        <v>0.04166666666666666</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R51"/>
       <c r="S51" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T51" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U51" s="7" t="n">
-        <v>21.99</v>
+        <v>0.0</v>
       </c>
       <c r="V51" s="7" t="n">
         <v>0.0</v>
@@ -3994,10 +3870,10 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>43269.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43271.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
@@ -4006,65 +3882,57 @@
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>SQ</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM200</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>SQ-LUHM90A</t>
+          <t>SNT-LUHM001-HW</t>
         </is>
       </c>
       <c r="G52" s="1" t="inlineStr">
         <is>
-          <t>B07DKXGT8H</t>
+          <t>B07DQP8MPM</t>
         </is>
       </c>
       <c r="H52" s="4" t="n">
-        <v>3193.0</v>
+        <v>60.0</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="J52" s="6" t="n">
-        <v>0.002192295646727216</v>
-      </c>
-      <c r="K52" s="7" t="n">
-        <v>1.0457142857142858</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K52"/>
       <c r="L52" s="7" t="n">
-        <v>7.32</v>
+        <v>0.0</v>
       </c>
       <c r="M52" s="7" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="N52" s="6" t="n">
-        <v>0.4068927181767649</v>
-      </c>
-      <c r="O52" s="5" t="n">
-        <v>2.4576502732240435</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N52"/>
+      <c r="O52"/>
       <c r="P52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q52" s="4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="R52" s="6" t="n">
-        <v>0.14285714285714285</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R52"/>
       <c r="S52" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="T52" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U52" s="7" t="n">
-        <v>17.99</v>
+        <v>0.0</v>
       </c>
       <c r="V52" s="7" t="n">
         <v>0.0</v>
@@ -4072,10 +3940,10 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43275.0</v>
+        <v>43283.0</v>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
@@ -4084,76 +3952,68 @@
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>SN bag</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM</t>
+          <t>SN-LUHM-BAG</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM-F111</t>
+          <t>SNT-LUHM001-WX</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>B07CQJ8G3M</t>
+          <t>B07DQLKY6T</t>
         </is>
       </c>
       <c r="H53" s="4" t="n">
-        <v>16515.0</v>
+        <v>112.0</v>
       </c>
       <c r="I53" s="4" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="J53" s="6" t="n">
-        <v>0.0015743263699666968</v>
-      </c>
-      <c r="K53" s="7" t="n">
-        <v>0.5615384615384615</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="K53"/>
       <c r="L53" s="7" t="n">
-        <v>14.6</v>
+        <v>0.0</v>
       </c>
       <c r="M53" s="7" t="n">
-        <v>31.97</v>
-      </c>
-      <c r="N53" s="6" t="n">
-        <v>0.45667813575226773</v>
-      </c>
-      <c r="O53" s="5" t="n">
-        <v>2.1897260273972603</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="N53"/>
+      <c r="O53"/>
       <c r="P53" s="4" t="n">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="R53" s="6" t="n">
-        <v>0.11538461538461538</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="R53"/>
       <c r="S53" s="4" t="n">
-        <v>2.0</v>
+        <v>0.0</v>
       </c>
       <c r="T53" s="4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U53" s="7" t="n">
-        <v>15.98</v>
+        <v>0.0</v>
       </c>
       <c r="V53" s="7" t="n">
-        <v>15.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
@@ -4162,63 +4022,65 @@
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>YQ-MANUAL</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM</t>
+          <t>YQ</t>
         </is>
       </c>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM-F112</t>
+          <t>YQ-LUHM-F111</t>
         </is>
       </c>
       <c r="G54" s="1" t="inlineStr">
         <is>
-          <t>B07DLX7V45</t>
+          <t>B07CQJ8G3M</t>
         </is>
       </c>
       <c r="H54" s="4" t="n">
-        <v>557.0</v>
+        <v>5140.0</v>
       </c>
       <c r="I54" s="4" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="J54" s="6" t="n">
-        <v>0.010771992818671455</v>
+        <v>0.0023346303501945525</v>
       </c>
       <c r="K54" s="7" t="n">
-        <v>0.39833333333333326</v>
+        <v>0.7225</v>
       </c>
       <c r="L54" s="7" t="n">
-        <v>2.3899999999999997</v>
+        <v>8.67</v>
       </c>
       <c r="M54" s="7" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N54"/>
+        <v>6.99</v>
+      </c>
+      <c r="N54" s="6" t="n">
+        <v>1.240343347639485</v>
+      </c>
       <c r="O54" s="5" t="n">
-        <v>0.0</v>
+        <v>0.8062283737024222</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q54" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="R54" s="6" t="n">
-        <v>0.0</v>
+        <v>0.08333333333333331</v>
       </c>
       <c r="S54" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="T54" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="U54" s="7" t="n">
-        <v>0.0</v>
+        <v>6.99</v>
       </c>
       <c r="V54" s="7" t="n">
         <v>0.0</v>
@@ -4226,10 +4088,10 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>43272.0</v>
+        <v>43283.0</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43275.0</v>
+        <v>43289.0</v>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
@@ -4238,67 +4100,2225 @@
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Bamboo</t>
+          <t>SQ-MANUAL</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM</t>
+          <t>SQ</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>YQ-LUHM-F114</t>
+          <t>SQ-LUHM204</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>B07DLTWN39</t>
+          <t>B07DKXSV9P</t>
         </is>
       </c>
       <c r="H55" s="4" t="n">
-        <v>1025.0</v>
+        <v>1932.0</v>
       </c>
       <c r="I55" s="4" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="J55" s="6" t="n">
+        <v>0.006728778467908902</v>
+      </c>
+      <c r="K55" s="7" t="n">
+        <v>0.7023076923076924</v>
+      </c>
+      <c r="L55" s="7" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="M55" s="7" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="N55" s="6" t="n">
+        <v>0.28549093183239527</v>
+      </c>
+      <c r="O55" s="5" t="n">
+        <v>3.5027382256297916</v>
+      </c>
+      <c r="P55" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q55" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R55" s="6" t="n">
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="S55" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T55" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U55" s="7" t="n">
+        <v>31.98</v>
+      </c>
+      <c r="V55" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS-GY-7IN</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>B07D4FV711</t>
+        </is>
+      </c>
+      <c r="H56" s="4" t="n">
+        <v>679.0</v>
+      </c>
+      <c r="I56" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J56" s="6" t="n">
+        <v>0.0014727540500736377</v>
+      </c>
+      <c r="K56" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="L56" s="7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N56"/>
+      <c r="O56" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R56" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T56" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V56" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C57" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS-Y0-6IN</t>
+        </is>
+      </c>
+      <c r="G57" s="1" t="inlineStr">
+        <is>
+          <t>B07D4GBBQB</t>
+        </is>
+      </c>
+      <c r="H57" s="4" t="n">
+        <v>647.0</v>
+      </c>
+      <c r="I57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K57"/>
+      <c r="L57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R57"/>
+      <c r="S57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T57" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V57" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS-Y0-7IN</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>B07D4FQCYC</t>
+        </is>
+      </c>
+      <c r="H58" s="4" t="n">
+        <v>700.0</v>
+      </c>
+      <c r="I58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J58" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K58"/>
+      <c r="L58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R58"/>
+      <c r="S58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T58" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V58" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-BR-6IN</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>B07D4FWK6H</t>
+        </is>
+      </c>
+      <c r="H59" s="4" t="n">
+        <v>1711.0</v>
+      </c>
+      <c r="I59" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J59" s="6" t="n">
+        <v>5.844535359438924E-4</v>
+      </c>
+      <c r="K59" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="L59" s="7" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="M59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N59"/>
+      <c r="O59" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R59" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T59" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V59" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C60" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-BR-7IN</t>
+        </is>
+      </c>
+      <c r="G60" s="1" t="inlineStr">
+        <is>
+          <t>B07D4GDZTQ</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="n">
+        <v>1296.0</v>
+      </c>
+      <c r="I60" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J60" s="6" t="n">
+        <v>7.716049382716049E-4</v>
+      </c>
+      <c r="K60" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="L60" s="7" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60"/>
+      <c r="O60" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T60" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V60" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C61" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-Y0-6IN</t>
+        </is>
+      </c>
+      <c r="G61" s="1" t="inlineStr">
+        <is>
+          <t>B07D4GSD2Q</t>
+        </is>
+      </c>
+      <c r="H61" s="4" t="n">
+        <v>1428.0</v>
+      </c>
+      <c r="I61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61"/>
+      <c r="L61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R61"/>
+      <c r="S61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T61" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V61" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Frame</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-Y0-7IN</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>B07D4GT945</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="n">
+        <v>1164.0</v>
+      </c>
+      <c r="I62" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <v>0.001718213058419244</v>
+      </c>
+      <c r="K62" s="7" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="L62" s="7" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="M62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R62" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T62" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V62" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="C63" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-SNT</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM</t>
+        </is>
+      </c>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM001-DX</t>
+        </is>
+      </c>
+      <c r="G63" s="1" t="inlineStr">
+        <is>
+          <t>B07DQPRJPR</t>
+        </is>
+      </c>
+      <c r="H63" s="4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="I63" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J63" s="6" t="n">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="K63" s="7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="L63" s="7" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="M63" s="7" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="N63" s="6" t="n">
+        <v>0.04936624416277517</v>
+      </c>
+      <c r="O63" s="5" t="n">
+        <v>20.256756756756758</v>
+      </c>
+      <c r="P63" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q63" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R63" s="6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="S63" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T63" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U63" s="7" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="V63" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C64" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-SNT</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM</t>
+        </is>
+      </c>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ06-BF-40</t>
+        </is>
+      </c>
+      <c r="G64" s="1" t="inlineStr">
+        <is>
+          <t>B076P8S1LC</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="n">
+        <v>11322.0</v>
+      </c>
+      <c r="I64" s="4" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="J64" s="6" t="n">
+        <v>0.0069775658010952125</v>
+      </c>
+      <c r="K64" s="7" t="n">
+        <v>0.43544303797468353</v>
+      </c>
+      <c r="L64" s="7" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="M64" s="7" t="n">
+        <v>157.9</v>
+      </c>
+      <c r="N64" s="6" t="n">
+        <v>0.21785940468651044</v>
+      </c>
+      <c r="O64" s="5" t="n">
+        <v>4.590116279069767</v>
+      </c>
+      <c r="P64" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="Q64" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="R64" s="6" t="n">
+        <v>0.12658227848101267</v>
+      </c>
+      <c r="S64" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="T64" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U64" s="7" t="n">
+        <v>127.92</v>
+      </c>
+      <c r="V64" s="7" t="n">
+        <v>29.98</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C65" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>SNT &amp; ZYL</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM001</t>
+        </is>
+      </c>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM001-E0</t>
+        </is>
+      </c>
+      <c r="G65" s="1" t="inlineStr">
+        <is>
+          <t>B07DQM6N3W</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="I65" s="4" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>0.009396636993076163</v>
+      </c>
+      <c r="K65" s="7" t="n">
+        <v>0.6010526315789475</v>
+      </c>
+      <c r="L65" s="7" t="n">
+        <v>11.420000000000002</v>
+      </c>
+      <c r="M65" s="7" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="N65" s="6" t="n">
+        <v>0.7146433041301627</v>
+      </c>
+      <c r="O65" s="5" t="n">
+        <v>1.3992994746059544</v>
+      </c>
+      <c r="P65" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q65" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="R65" s="6" t="n">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="S65" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T65" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U65" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V65" s="7" t="n">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C66" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>SNT &amp; ZYL</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM001</t>
+        </is>
+      </c>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ59-BF-32</t>
+        </is>
+      </c>
+      <c r="G66" s="1" t="inlineStr">
+        <is>
+          <t>B078JQ3KLW</t>
+        </is>
+      </c>
+      <c r="H66" s="4" t="n">
+        <v>739.0</v>
+      </c>
+      <c r="I66" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>0.0040595399188092015</v>
+      </c>
+      <c r="K66" s="7" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L66" s="7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N66"/>
+      <c r="O66" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R66" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T66" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V66" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C67" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-SNT</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM</t>
+        </is>
+      </c>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM001-W0</t>
+        </is>
+      </c>
+      <c r="G67" s="1" t="inlineStr">
+        <is>
+          <t>B07DQLKY6N</t>
+        </is>
+      </c>
+      <c r="H67" s="4" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>0.013861386138613863</v>
+      </c>
+      <c r="K67" s="7" t="n">
+        <v>0.4257142857142857</v>
+      </c>
+      <c r="L67" s="7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M67" s="7" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="N67" s="6" t="n">
+        <v>0.37296620775969963</v>
+      </c>
+      <c r="O67" s="5" t="n">
+        <v>2.6812080536912752</v>
+      </c>
+      <c r="P67" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q67" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R67" s="6" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="S67" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T67" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U67" s="7" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="V67" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-SNT</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr">
+        <is>
+          <t>SNH-LUHM</t>
+        </is>
+      </c>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ59-BF-32</t>
+        </is>
+      </c>
+      <c r="G68" s="1" t="inlineStr">
+        <is>
+          <t>B078JQ3KLW</t>
+        </is>
+      </c>
+      <c r="H68" s="4" t="n">
+        <v>1227.0</v>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>0.0024449877750611247</v>
+      </c>
+      <c r="K68" s="7" t="n">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="L68" s="7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N68"/>
+      <c r="O68" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R68" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T68" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V68" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="C69" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr">
+        <is>
+          <t>st</t>
+        </is>
+      </c>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>ST-LAHM-LG-001</t>
+        </is>
+      </c>
+      <c r="G69" s="1" t="inlineStr">
+        <is>
+          <t>B07DVJW5HD</t>
+        </is>
+      </c>
+      <c r="H69" s="4" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K69"/>
+      <c r="L69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R69"/>
+      <c r="S69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T69" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V69" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D70" s="1" t="inlineStr">
+        <is>
+          <t>SNT &amp; ZYL</t>
+        </is>
+      </c>
+      <c r="E70" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM001</t>
+        </is>
+      </c>
+      <c r="F70" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM001-DX</t>
+        </is>
+      </c>
+      <c r="G70" s="1" t="inlineStr">
+        <is>
+          <t>B07DQPRJPR</t>
+        </is>
+      </c>
+      <c r="H70" s="4" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J70" s="6" t="n">
+        <v>0.006012024048096193</v>
+      </c>
+      <c r="K70" s="7" t="n">
+        <v>0.6366666666666666</v>
+      </c>
+      <c r="L70" s="7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N70"/>
+      <c r="O70" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R70" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T70" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V70" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>43283.0</v>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="C71" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D71" s="1" t="inlineStr">
+        <is>
+          <t>SNT &amp; ZYL</t>
+        </is>
+      </c>
+      <c r="E71" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM001</t>
+        </is>
+      </c>
+      <c r="F71" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ06-BF-40</t>
+        </is>
+      </c>
+      <c r="G71" s="1" t="inlineStr">
+        <is>
+          <t>B076P8S1LC</t>
+        </is>
+      </c>
+      <c r="H71" s="4" t="n">
+        <v>4573.0</v>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>0.0037174721189591076</v>
+      </c>
+      <c r="K71" s="7" t="n">
+        <v>0.4935294117647058</v>
+      </c>
+      <c r="L71" s="7" t="n">
+        <v>8.389999999999999</v>
+      </c>
+      <c r="M71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N71"/>
+      <c r="O71" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R71" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T71" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V71" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="C72" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D72" s="1" t="inlineStr">
+        <is>
+          <t>SQ-M</t>
+        </is>
+      </c>
+      <c r="E72" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM</t>
+        </is>
+      </c>
+      <c r="F72" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM204</t>
+        </is>
+      </c>
+      <c r="G72" s="1" t="inlineStr">
+        <is>
+          <t>B07DKXSV9P</t>
+        </is>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>7248.0</v>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>0.0013796909492273732</v>
+      </c>
+      <c r="K72" s="7" t="n">
+        <v>0.564</v>
+      </c>
+      <c r="L72" s="7" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="M72" s="7" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="N72" s="6" t="n">
+        <v>0.35272045028142585</v>
+      </c>
+      <c r="O72" s="5" t="n">
+        <v>2.8351063829787235</v>
+      </c>
+      <c r="P72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="Q72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="R72" s="6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S72" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="T72" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U72" s="7" t="n">
+        <v>15.99</v>
+      </c>
+      <c r="V72" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D73" s="1" t="inlineStr">
+        <is>
+          <t>SQ-M</t>
+        </is>
+      </c>
+      <c r="E73" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM</t>
+        </is>
+      </c>
+      <c r="F73" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM304</t>
+        </is>
+      </c>
+      <c r="G73" s="1" t="inlineStr">
+        <is>
+          <t>B07DKWSJ1Z</t>
+        </is>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>3512.0</v>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>0.0014236902050113894</v>
+      </c>
+      <c r="K73" s="7" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="L73" s="7" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N73"/>
+      <c r="O73" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R73" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T73" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V73" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="C74" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D74" s="1" t="inlineStr">
+        <is>
+          <t>SQ-M</t>
+        </is>
+      </c>
+      <c r="E74" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM</t>
+        </is>
+      </c>
+      <c r="F74" s="1" t="inlineStr">
+        <is>
+          <t>SQ-LUHM90A</t>
+        </is>
+      </c>
+      <c r="G74" s="1" t="inlineStr">
+        <is>
+          <t>B07DKXGT8H</t>
+        </is>
+      </c>
+      <c r="H74" s="4" t="n">
+        <v>2105.0</v>
+      </c>
+      <c r="I74" s="4" t="n">
         <v>4.0</v>
       </c>
-      <c r="J55" s="6" t="n">
-        <v>0.003902439024390244</v>
-      </c>
-      <c r="K55" s="7" t="n">
-        <v>0.4325</v>
-      </c>
-      <c r="L55" s="7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="M55" s="7" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="N55" s="6" t="n">
-        <v>0.10819262038774234</v>
-      </c>
-      <c r="O55" s="5" t="n">
-        <v>9.242774566473988</v>
-      </c>
-      <c r="P55" s="4" t="n">
+      <c r="J74" s="6" t="n">
+        <v>0.0019002375296912114</v>
+      </c>
+      <c r="K74" s="7" t="n">
+        <v>0.3075</v>
+      </c>
+      <c r="L74" s="7" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N74"/>
+      <c r="O74" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R74" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T74" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D75" s="1" t="inlineStr">
+        <is>
+          <t>SNT &amp; ZYL</t>
+        </is>
+      </c>
+      <c r="E75" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM001</t>
+        </is>
+      </c>
+      <c r="F75" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ06-TZ-40</t>
+        </is>
+      </c>
+      <c r="G75" s="1" t="inlineStr">
+        <is>
+          <t>B075R4RWDL</t>
+        </is>
+      </c>
+      <c r="H75" s="4" t="n">
+        <v>1503.0</v>
+      </c>
+      <c r="I75" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>0.002661343978709248</v>
+      </c>
+      <c r="K75" s="7" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="L75" s="7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N75"/>
+      <c r="O75" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R75" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T75" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V75" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>43285.0</v>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C76" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D76" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-SNT</t>
+        </is>
+      </c>
+      <c r="E76" s="1" t="inlineStr">
+        <is>
+          <t>SNT-LUHM</t>
+        </is>
+      </c>
+      <c r="F76" s="1" t="inlineStr">
+        <is>
+          <t>ZYL-FLQ06-TZ-40</t>
+        </is>
+      </c>
+      <c r="G76" s="1" t="inlineStr">
+        <is>
+          <t>B075R4RWDL</t>
+        </is>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>4165.0</v>
+      </c>
+      <c r="I76" s="4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>0.0019207683073229293</v>
+      </c>
+      <c r="K76" s="7" t="n">
+        <v>0.34125</v>
+      </c>
+      <c r="L76" s="7" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N76"/>
+      <c r="O76" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R76" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T76" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V76" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>43287.0</v>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C77" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D77" s="1" t="inlineStr">
+        <is>
+          <t>STone</t>
+        </is>
+      </c>
+      <c r="E77" s="1" t="inlineStr">
+        <is>
+          <t>whisky stone-M</t>
+        </is>
+      </c>
+      <c r="F77" s="1" t="inlineStr">
+        <is>
+          <t>ST-LAHM-LG-001</t>
+        </is>
+      </c>
+      <c r="G77" s="1" t="inlineStr">
+        <is>
+          <t>B07DVJW5HD</t>
+        </is>
+      </c>
+      <c r="H77" s="4" t="n">
+        <v>21498.0</v>
+      </c>
+      <c r="I77" s="4" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="J77" s="6" t="n">
+        <v>0.0023723137036003347</v>
+      </c>
+      <c r="K77" s="7" t="n">
+        <v>1.0747058823529412</v>
+      </c>
+      <c r="L77" s="7" t="n">
+        <v>54.81</v>
+      </c>
+      <c r="M77" s="7" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="N77" s="6" t="n">
+        <v>4.987261146496816</v>
+      </c>
+      <c r="O77" s="5" t="n">
+        <v>0.20051085568326948</v>
+      </c>
+      <c r="P77" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="Q55" s="4" t="n">
+      <c r="Q77" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="R55" s="6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S55" s="4" t="n">
+      <c r="R77" s="6" t="n">
+        <v>0.0196078431372549</v>
+      </c>
+      <c r="S77" s="4" t="n">
         <v>1.0</v>
       </c>
-      <c r="T55" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="7" t="n">
-        <v>15.99</v>
-      </c>
-      <c r="V55" s="7" t="n">
+      <c r="T77" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U77" s="7" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="V77" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>43287.0</v>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D78" s="1" t="inlineStr">
+        <is>
+          <t>QLQ-WF121-WO</t>
+        </is>
+      </c>
+      <c r="E78" s="1" t="inlineStr">
+        <is>
+          <t>QLQ-LUHM121-WO</t>
+        </is>
+      </c>
+      <c r="F78" s="1" t="inlineStr">
+        <is>
+          <t>QLQ-LUHM121-GM</t>
+        </is>
+      </c>
+      <c r="G78" s="1" t="inlineStr">
+        <is>
+          <t>B07CXM3QD3</t>
+        </is>
+      </c>
+      <c r="H78" s="4" t="n">
+        <v>329.0</v>
+      </c>
+      <c r="I78" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>0.0121580547112462</v>
+      </c>
+      <c r="K78" s="7" t="n">
+        <v>0.2175</v>
+      </c>
+      <c r="L78" s="7" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N78"/>
+      <c r="O78" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R78" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T78" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V78" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C79" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D79" s="1" t="inlineStr">
+        <is>
+          <t>SQ-MANUAL</t>
+        </is>
+      </c>
+      <c r="E79" s="1" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F79" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM050-K0</t>
+        </is>
+      </c>
+      <c r="G79" s="1" t="inlineStr">
+        <is>
+          <t>B07F63TBYG</t>
+        </is>
+      </c>
+      <c r="H79" s="4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N79"/>
+      <c r="O79"/>
+      <c r="P79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R79"/>
+      <c r="S79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T79" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V79" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C80" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D80" s="1" t="inlineStr">
+        <is>
+          <t>SQ-MANUAL</t>
+        </is>
+      </c>
+      <c r="E80" s="1" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="F80" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM100-K0</t>
+        </is>
+      </c>
+      <c r="G80" s="1" t="inlineStr">
+        <is>
+          <t>B07F634TZ1</t>
+        </is>
+      </c>
+      <c r="H80" s="4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80"/>
+      <c r="L80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80"/>
+      <c r="O80"/>
+      <c r="P80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80"/>
+      <c r="S80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T80" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D81" s="1" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="E81" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM000</t>
+        </is>
+      </c>
+      <c r="F81" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM050-K0</t>
+        </is>
+      </c>
+      <c r="G81" s="1" t="inlineStr">
+        <is>
+          <t>B07F63TBYG</t>
+        </is>
+      </c>
+      <c r="H81" s="4" t="n">
+        <v>189.0</v>
+      </c>
+      <c r="I81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81"/>
+      <c r="L81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81"/>
+      <c r="O81"/>
+      <c r="P81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81"/>
+      <c r="S81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T81" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V81" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C82" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D82" s="1" t="inlineStr">
+        <is>
+          <t>SQ</t>
+        </is>
+      </c>
+      <c r="E82" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM000</t>
+        </is>
+      </c>
+      <c r="F82" s="1" t="inlineStr">
+        <is>
+          <t>SG-LUHM100-K0</t>
+        </is>
+      </c>
+      <c r="G82" s="1" t="inlineStr">
+        <is>
+          <t>B07F634TZ1</t>
+        </is>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>300.0</v>
+      </c>
+      <c r="I82" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="J82" s="6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K82" s="7" t="n">
+        <v>1.7700000000000002</v>
+      </c>
+      <c r="L82" s="7" t="n">
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="M82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82"/>
+      <c r="O82" s="5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R82" s="6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="S82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T82" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C83" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D83" s="1" t="inlineStr">
+        <is>
+          <t>相框手动</t>
+        </is>
+      </c>
+      <c r="E83" s="1" t="inlineStr">
+        <is>
+          <t>相框手动-001</t>
+        </is>
+      </c>
+      <c r="F83" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-BR-6IN</t>
+        </is>
+      </c>
+      <c r="G83" s="1" t="inlineStr">
+        <is>
+          <t>B07D4FWK6H</t>
+        </is>
+      </c>
+      <c r="H83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83"/>
+      <c r="P83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R83"/>
+      <c r="S83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T83" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" s="7" t="n">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>43289.0</v>
+      </c>
+      <c r="C84" s="1" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="D84" s="1" t="inlineStr">
+        <is>
+          <t>相框手动</t>
+        </is>
+      </c>
+      <c r="E84" s="1" t="inlineStr">
+        <is>
+          <t>相框手动-001</t>
+        </is>
+      </c>
+      <c r="F84" s="1" t="inlineStr">
+        <is>
+          <t>XK-YIWUJS2-Y0-6IN</t>
+        </is>
+      </c>
+      <c r="G84" s="1" t="inlineStr">
+        <is>
+          <t>B07D4GSD2Q</t>
+        </is>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R84"/>
+      <c r="S84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="T84" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" s="7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V84" s="7" t="n">
         <v>0.0</v>
       </c>
     </row>
